--- a/宠物之家webAPI.xlsx
+++ b/宠物之家webAPI.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1588,6 +1588,10 @@
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据库名为：pethouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2253,7 +2257,7 @@
   <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -2520,7 +2524,9 @@
     </row>
     <row r="10" spans="1:15" ht="22.8" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>

--- a/宠物之家webAPI.xlsx
+++ b/宠物之家webAPI.xlsx
@@ -11,13 +11,14 @@
     <sheet name="商品" sheetId="2" r:id="rId2"/>
     <sheet name="订单" sheetId="3" r:id="rId3"/>
     <sheet name="商品类别" sheetId="4" r:id="rId4"/>
+    <sheet name="评论" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
   <si>
     <r>
       <rPr>
@@ -1592,6 +1593,112 @@
     <t>数据库名为：pethouse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> web（宠物之家）评论接口记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews/insertReviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//“1”代表添加成功
+//“2”代表评论已存在
+该功能已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews/delReviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+int rNumber;评论编号
+String rName:评论名
+String rDeail
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//“1”代表删除成功
+//“2”代表删除失败或评论不存在
+该功能已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews/alterReviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String rNumber；评论编号
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+int rNumber;评论编号
+String rName:评论名
+String rDeail
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//“1”代表修改成功_x000D_
+//“2”代表修改失败或评论不存在_x000D_
+该功能暂未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews/getList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reviews/fenye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String next；上一页
+String last；下一页
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+评论列表详情
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页评论显示10条
+该功能已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1852,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1951,6 +2058,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2256,7 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5000,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -16383,8 +16493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -22085,4 +22195,195 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="26.796875" customWidth="1"/>
+    <col min="8" max="8" width="34.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48.6">
+      <c r="A1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="83.4" customHeight="1">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>